--- a/VerveStacks_PRT/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_PRT/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C956274-C834-4378-A88E-0026D228E91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB3CAA-B87C-4F37-AE91-A47FD2058F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_PRT/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_PRT/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB3CAA-B87C-4F37-AE91-A47FD2058F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B45B33A-0707-411A-AFA3-1A82F70C5393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
